--- a/doc/数据库基本表设计.xlsx
+++ b/doc/数据库基本表设计.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="总" sheetId="23" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="transaction" sheetId="18" r:id="rId4"/>
     <sheet name="production" sheetId="17" r:id="rId5"/>
     <sheet name="item" sheetId="22" r:id="rId6"/>
+    <sheet name="PI" sheetId="25" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="86">
   <si>
     <t>collection名：</t>
   </si>
@@ -192,18 +193,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>主键，product id, 从1开始自增</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>i_id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>外键，工艺项目id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>产品设计者</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -224,10 +217,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>主键，item id, 从1开始自增</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>i_name</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -333,6 +322,42 @@
   </si>
   <si>
     <t>数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>外键，产品id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品工序关系表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键，外键，product id, 哈希</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键，外键，item id, 哈希</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键，item id, 按产品名工艺名哈希</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键，product id, 按产品名哈希</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -425,8 +450,36 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -514,23 +567,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -566,23 +602,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -761,7 +780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -773,18 +792,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -797,7 +816,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -805,10 +824,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -816,15 +835,15 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" t="s">
         <v>70</v>
-      </c>
-      <c r="B8" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1013,7 +1032,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1085,35 +1104,35 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -1136,17 +1155,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.75" customWidth="1"/>
     <col min="2" max="2" width="19.375" customWidth="1"/>
-    <col min="3" max="3" width="28.875" customWidth="1"/>
+    <col min="3" max="3" width="32" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
@@ -1176,7 +1195,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
@@ -1184,7 +1203,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -1192,7 +1211,7 @@
         <v>43</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>17</v>
@@ -1200,24 +1219,13 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
         <v>45</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1228,17 +1236,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.75" customWidth="1"/>
     <col min="2" max="2" width="19.375" customWidth="1"/>
-    <col min="3" max="3" width="28.875" customWidth="1"/>
+    <col min="3" max="3" width="34.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
@@ -1246,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -1254,7 +1262,7 @@
         <v>42</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -1270,57 +1278,138 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="14.75" customWidth="1"/>
+    <col min="2" max="2" width="19.375" customWidth="1"/>
+    <col min="3" max="3" width="36.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
